--- a/discord_bot/export/test.xlsx
+++ b/discord_bot/export/test.xlsx
@@ -14,21 +14,213 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Gym</t>
-  </si>
-  <si>
-    <t>Total</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="69">
+  <si>
+    <t>message_id</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>message_text</t>
+  </si>
+  <si>
+    <t>message_date</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>Butcher#1432</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>2021-09-08 11:41:11.709000</t>
+  </si>
+  <si>
+    <t>34 Group</t>
+  </si>
+  <si>
+    <t>2021-09-08 11:41:12.346000</t>
+  </si>
+  <si>
+    <t>2021-09-08 11:41:12.896000</t>
+  </si>
+  <si>
+    <t>𝖆𝖘𝖙𝖗𝖔#6388</t>
+  </si>
+  <si>
+    <t>/ss</t>
+  </si>
+  <si>
+    <t>2021-09-08 11:49:35.579000</t>
+  </si>
+  <si>
+    <t>/fascist</t>
+  </si>
+  <si>
+    <t>2021-09-08 11:49:47.824000</t>
+  </si>
+  <si>
+    <t>/help</t>
+  </si>
+  <si>
+    <t>2021-09-08 19:00:58.684000</t>
+  </si>
+  <si>
+    <t>ARMA 3 COOP</t>
+  </si>
+  <si>
+    <t>/get_data</t>
+  </si>
+  <si>
+    <t>2021-09-08 19:07:24.651000</t>
+  </si>
+  <si>
+    <t>/get_dta</t>
+  </si>
+  <si>
+    <t>2021-09-08 19:08:43.070000</t>
+  </si>
+  <si>
+    <t>/get_dat</t>
+  </si>
+  <si>
+    <t>2021-09-08 19:08:45.742000</t>
+  </si>
+  <si>
+    <t>2021-09-08 19:08:49.087000</t>
+  </si>
+  <si>
+    <t>2021-09-08 19:08:59.161000</t>
+  </si>
+  <si>
+    <t>2021-09-09 12:58:13.385000</t>
+  </si>
+  <si>
+    <t>2021-09-09 12:58:15.112000</t>
+  </si>
+  <si>
+    <t>/get_latest</t>
+  </si>
+  <si>
+    <t>2021-09-09 12:58:51.384000</t>
+  </si>
+  <si>
+    <t>2021-09-09 12:59:29.682000</t>
+  </si>
+  <si>
+    <t>get_latest</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:00:02.713000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:00:04.258000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:01:21.697000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:01:24.147000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:01:58.197000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:02:50.282000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:03:51.164000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:04:44.550000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:06:21.305000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:06:48.821000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:07:21.174000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:09:57.039000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:12:13.943000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:12:45.294000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:13:13.102000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:14:45.922000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:15:05.579000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:17:27.318000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:18:15.113000</t>
+  </si>
+  <si>
+    <t>dfasf</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:18:22.831000</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:18:23.133000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:18:23.538000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:18:23.709000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:18:24.150000</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:18:26.898000</t>
+  </si>
+  <si>
+    <t>fdasf\</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:19:02.050000</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>2021-09-09 13:19:03.050000</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>2021-09-09 19:30:06.901000</t>
+  </si>
+  <si>
+    <t>/get_latest Butcher#1432</t>
+  </si>
+  <si>
+    <t>2021-09-09 19:32:28.695000</t>
+  </si>
+  <si>
+    <t>PPC NTU KHPI</t>
   </si>
 </sst>
 </file>
@@ -360,51 +552,775 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>SUM(B1:B4)</f>
-        <v>0</v>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/discord_bot/export/test.xlsx
+++ b/discord_bot/export/test.xlsx
@@ -236,15 +236,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF79AD74"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1E4E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -252,12 +264,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,769 +586,772 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>68</v>
       </c>
     </row>
